--- a/R_Logit_Models/Location_Choice/Proposed/ProposedSegmentedFamilyResults.xlsx
+++ b/R_Logit_Models/Location_Choice/Proposed/ProposedSegmentedFamilyResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Documents\Ethan\TMG\Research\PORPOS-TMG\R_Logit_Models\Location_Choice\Proposed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{188A4D4A-ADEF-408E-A470-9B59BA9AF2DB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F1A10D-9606-402E-9520-DAFDE8A8A42C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{BD6B8F07-AA35-4F26-A217-3B2824787D8E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
   <si>
     <t>Acc</t>
   </si>
@@ -88,6 +88,18 @@
   </si>
   <si>
     <t>Mode Choice - Family</t>
+  </si>
+  <si>
+    <t>Location Choice Family</t>
+  </si>
+  <si>
+    <t>Dist</t>
+  </si>
+  <si>
+    <t>Access (2+)</t>
+  </si>
+  <si>
+    <t>Dist + Access</t>
   </si>
 </sst>
 </file>
@@ -95,9 +107,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,8 +125,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -127,11 +147,35 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -140,72 +184,132 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode="0.0000"/>
+  <dxfs count="26">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -219,7 +323,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="171" formatCode="0.0000"/>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -233,7 +337,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="171" formatCode="0.0000"/>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -247,7 +351,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="171" formatCode="0.0000"/>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -261,7 +365,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="171" formatCode="0.0000"/>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -275,7 +379,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="171" formatCode="0.0000"/>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -300,6 +404,12 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -315,33 +425,49 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B84CE507-00AE-41F6-9312-38468EA39CDC}" name="Table1" displayName="Table1" ref="A2:H6" totalsRowShown="0" headerRowDxfId="8" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B84CE507-00AE-41F6-9312-38468EA39CDC}" name="Table1" displayName="Table1" ref="A2:H6" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
   <autoFilter ref="A2:H6" xr:uid="{7374BD7D-A864-401F-B4D5-C1C15E394935}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{0F6DFB98-453C-4E33-AEC5-D361DD052CEF}" name="Model"/>
-    <tableColumn id="2" xr3:uid="{394823AF-659A-45FC-BC09-B73A3BB9172C}" name="n" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{0D1536BD-5815-44DB-9A3D-AA7D81CD2070}" name="Acc" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{39B822FE-6496-49F9-9BBB-8D8AD13B7EA7}" name="Prec" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{46052230-A4B8-4E8F-AE82-6071367753FB}" name="Rec" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{D3DC0D8D-F33D-4D93-A283-685746EBE1A1}" name="F1" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{59638602-40D9-4F05-935C-E89EA4BF53A3}" name="MCC" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{D9B209CC-921E-4CEF-B705-751DB08C079D}" name="APO" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{394823AF-659A-45FC-BC09-B73A3BB9172C}" name="n" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{0D1536BD-5815-44DB-9A3D-AA7D81CD2070}" name="Acc" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{39B822FE-6496-49F9-9BBB-8D8AD13B7EA7}" name="Prec" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{46052230-A4B8-4E8F-AE82-6071367753FB}" name="Rec" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{D3DC0D8D-F33D-4D93-A283-685746EBE1A1}" name="F1" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{59638602-40D9-4F05-935C-E89EA4BF53A3}" name="MCC" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{D9B209CC-921E-4CEF-B705-751DB08C079D}" name="APO" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{42F53070-52F3-445B-955F-1E90867FE57F}" name="Table2" displayName="Table2" ref="A10:G15" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{42F53070-52F3-445B-955F-1E90867FE57F}" name="Table2" displayName="Table2" ref="A10:G15" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="A10:G15" xr:uid="{3B7F455A-04B3-4586-9D07-B03CFB250F9D}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{5925B2C4-EE07-4FB5-867D-49BC5998D0FD}" name="Model"/>
-    <tableColumn id="2" xr3:uid="{F37A99B9-519E-4255-938A-FEF57F24A8D3}" name="Acc" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{0B9A5BF4-8956-4425-9C29-FCF3E38A2666}" name="Prec" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{1CD8E732-A839-488C-B238-8BFB60A21099}" name="Rec" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{B080AFE3-126C-496B-B4B0-582240E2E177}" name="F1" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{77601CF7-E33C-4C0C-BAA7-9C47D0BD86EE}" name="MCC" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{6248F527-6FBA-4879-B1B7-5C49586E1C91}" name="APO" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{F37A99B9-519E-4255-938A-FEF57F24A8D3}" name="Acc" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{0B9A5BF4-8956-4425-9C29-FCF3E38A2666}" name="Prec" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{1CD8E732-A839-488C-B238-8BFB60A21099}" name="Rec" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{B080AFE3-126C-496B-B4B0-582240E2E177}" name="F1" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{77601CF7-E33C-4C0C-BAA7-9C47D0BD86EE}" name="MCC" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{6248F527-6FBA-4879-B1B7-5C49586E1C91}" name="APO" dataDxfId="9"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C5DE85BD-655B-4152-8545-F73C95A6ADE0}" name="Table3" displayName="Table3" ref="A19:G22" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" tableBorderDxfId="8">
+  <autoFilter ref="A19:G22" xr:uid="{77703A0A-39D0-429A-ACF4-0C99CDADF540}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{E19B7742-634F-4698-8AC1-E1DF6074238D}" name="Model"/>
+    <tableColumn id="2" xr3:uid="{6A7B2373-52C1-4DC1-AB7A-E0117E4F61F7}" name="Acc" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{C5FDAE9C-053B-4A14-9A9D-8BE8513C0FAC}" name="Prec" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{E5141B5E-6BB2-4398-9B3F-61DD7C26EFB0}" name="Rec" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{CD9B941E-1047-4414-A92F-95A460D0D92C}" name="F1" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{110112AC-B6D2-4409-87DA-6E3A86D38591}" name="MCC" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{3BB2A1B3-575D-466D-816E-E90ECF9C7441}" name="APO" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -644,25 +770,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6D7CEBD-22D6-4FD0-83EF-3319F80DC2EE}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" customWidth="1"/>
-    <col min="4" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.81640625" customWidth="1"/>
+    <col min="4" max="8" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -688,7 +814,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -714,7 +840,7 @@
         <v>0.49666660000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -740,7 +866,7 @@
         <v>0.27413490000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -773,7 +899,7 @@
         <v>0.37023412267883266</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
@@ -799,12 +925,12 @@
         <v>0.37058580000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -827,7 +953,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -850,7 +976,7 @@
         <v>0.74846420000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -873,7 +999,7 @@
         <v>0.77249391000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -896,7 +1022,7 @@
         <v>0.77447829999999995</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -919,7 +1045,7 @@
         <v>0.79821489999999995</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -942,8 +1068,113 @@
         <v>0.83765212</v>
       </c>
     </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.36415619999999999</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.19617989999999999</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.25972849999999997</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.2209747</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0.18013689999999999</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0.27331109999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.31877357000000001</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.23728179999999999</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.16583007999999999</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.12603511000000001</v>
+      </c>
+      <c r="F21" s="2">
+        <v>6.5802639999999996E-2</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0.24690376</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.36427789999999999</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.24803269999999999</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.25913029999999998</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.22120039999999999</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0.1799761</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0.27366649999999998</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B11:B15">
+  <conditionalFormatting sqref="B11:B16">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -955,7 +1186,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C11:C15">
+  <conditionalFormatting sqref="C11:C16">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -967,7 +1198,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11:D15">
+  <conditionalFormatting sqref="D11:D16">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -979,7 +1210,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E11:E15">
+  <conditionalFormatting sqref="E11:E16">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -991,7 +1222,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F15">
+  <conditionalFormatting sqref="F11:F16">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -1003,7 +1234,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G11:G15">
+  <conditionalFormatting sqref="G11:G16">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -1017,9 +1248,10 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="2">
+  <tableParts count="3">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>